--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il10-Il10ra.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il10-Il10ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.790676095196317</v>
+        <v>0.8413286666666666</v>
       </c>
       <c r="H2">
-        <v>0.790676095196317</v>
+        <v>2.523986</v>
       </c>
       <c r="I2">
-        <v>0.01979676892991311</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="J2">
-        <v>0.01979676892991311</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>17.9321808293765</v>
+        <v>0.053067</v>
       </c>
       <c r="N2">
-        <v>17.9321808293765</v>
+        <v>0.159201</v>
       </c>
       <c r="O2">
-        <v>0.3116002547078988</v>
+        <v>0.0008795792419895585</v>
       </c>
       <c r="P2">
-        <v>0.3116002547078988</v>
+        <v>0.0008795792419895586</v>
       </c>
       <c r="Q2">
-        <v>14.17854671652566</v>
+        <v>0.044646788354</v>
       </c>
       <c r="R2">
-        <v>14.17854671652566</v>
+        <v>0.401821095186</v>
       </c>
       <c r="S2">
-        <v>0.006168678240954342</v>
+        <v>1.783787797090679E-05</v>
       </c>
       <c r="T2">
-        <v>0.006168678240954342</v>
+        <v>1.783787797090679E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.790676095196317</v>
+        <v>0.8413286666666666</v>
       </c>
       <c r="H3">
-        <v>0.790676095196317</v>
+        <v>2.523986</v>
       </c>
       <c r="I3">
-        <v>0.01979676892991311</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="J3">
-        <v>0.01979676892991311</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.616491093843</v>
+        <v>17.94924733333334</v>
       </c>
       <c r="N3">
-        <v>39.616491093843</v>
+        <v>53.847742</v>
       </c>
       <c r="O3">
-        <v>0.6883997452921012</v>
+        <v>0.297506649400502</v>
       </c>
       <c r="P3">
-        <v>0.6883997452921012</v>
+        <v>0.297506649400502</v>
       </c>
       <c r="Q3">
-        <v>31.32381248345945</v>
+        <v>15.10121632662356</v>
       </c>
       <c r="R3">
-        <v>31.32381248345945</v>
+        <v>135.910946939612</v>
       </c>
       <c r="S3">
-        <v>0.01362809068895877</v>
+        <v>0.006033438551295988</v>
       </c>
       <c r="T3">
-        <v>0.01362809068895877</v>
+        <v>0.006033438551295989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.26280909357903</v>
+        <v>0.8413286666666666</v>
       </c>
       <c r="H4">
-        <v>3.26280909357903</v>
+        <v>2.523986</v>
       </c>
       <c r="I4">
-        <v>0.08169347483809472</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="J4">
-        <v>0.08169347483809472</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.9321808293765</v>
+        <v>42.27999766666667</v>
       </c>
       <c r="N4">
-        <v>17.9321808293765</v>
+        <v>126.839993</v>
       </c>
       <c r="O4">
-        <v>0.3116002547078988</v>
+        <v>0.7007859554707628</v>
       </c>
       <c r="P4">
-        <v>0.3116002547078988</v>
+        <v>0.7007859554707628</v>
       </c>
       <c r="Q4">
-        <v>58.50928267779319</v>
+        <v>35.57137406356645</v>
       </c>
       <c r="R4">
-        <v>58.50928267779319</v>
+        <v>320.142366572098</v>
       </c>
       <c r="S4">
-        <v>0.02545570756752363</v>
+        <v>0.01421194789583402</v>
       </c>
       <c r="T4">
-        <v>0.02545570756752363</v>
+        <v>0.01421194789583402</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.26280909357903</v>
+        <v>0.8413286666666666</v>
       </c>
       <c r="H5">
-        <v>3.26280909357903</v>
+        <v>2.523986</v>
       </c>
       <c r="I5">
-        <v>0.08169347483809472</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="J5">
-        <v>0.08169347483809472</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>39.616491093843</v>
+        <v>0.049944</v>
       </c>
       <c r="N5">
-        <v>39.616491093843</v>
+        <v>0.149832</v>
       </c>
       <c r="O5">
-        <v>0.6883997452921012</v>
+        <v>0.0008278158867455576</v>
       </c>
       <c r="P5">
-        <v>0.6883997452921012</v>
+        <v>0.0008278158867455577</v>
       </c>
       <c r="Q5">
-        <v>129.2610473966836</v>
+        <v>0.042019318928</v>
       </c>
       <c r="R5">
-        <v>129.2610473966836</v>
+        <v>0.378173870352</v>
       </c>
       <c r="S5">
-        <v>0.05623776727057109</v>
+        <v>1.678811648254035E-05</v>
       </c>
       <c r="T5">
-        <v>0.05623776727057109</v>
+        <v>1.678811648254035E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,184 +779,184 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.2218042348489</v>
+        <v>3.271755333333333</v>
       </c>
       <c r="H6">
-        <v>15.2218042348489</v>
+        <v>9.815265999999999</v>
       </c>
       <c r="I6">
-        <v>0.3811200856639737</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="J6">
-        <v>0.3811200856639737</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>17.9321808293765</v>
+        <v>0.053067</v>
       </c>
       <c r="N6">
-        <v>17.9321808293765</v>
+        <v>0.159201</v>
       </c>
       <c r="O6">
-        <v>0.3116002547078988</v>
+        <v>0.0008795792419895585</v>
       </c>
       <c r="P6">
-        <v>0.3116002547078988</v>
+        <v>0.0008795792419895586</v>
       </c>
       <c r="Q6">
-        <v>272.9601460886794</v>
+        <v>0.173622240274</v>
       </c>
       <c r="R6">
-        <v>272.9601460886794</v>
+        <v>1.562600162466</v>
       </c>
       <c r="S6">
-        <v>0.1187571157671904</v>
+        <v>6.93678638312536E-05</v>
       </c>
       <c r="T6">
-        <v>0.1187571157671904</v>
+        <v>6.93678638312536E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.2218042348489</v>
+        <v>3.271755333333333</v>
       </c>
       <c r="H7">
-        <v>15.2218042348489</v>
+        <v>9.815265999999999</v>
       </c>
       <c r="I7">
-        <v>0.3811200856639737</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="J7">
-        <v>0.3811200856639737</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.616491093843</v>
+        <v>17.94924733333334</v>
       </c>
       <c r="N7">
-        <v>39.616491093843</v>
+        <v>53.847742</v>
       </c>
       <c r="O7">
-        <v>0.6883997452921012</v>
+        <v>0.297506649400502</v>
       </c>
       <c r="P7">
-        <v>0.6883997452921012</v>
+        <v>0.297506649400502</v>
       </c>
       <c r="Q7">
-        <v>603.0344719021132</v>
+        <v>58.72554569215245</v>
       </c>
       <c r="R7">
-        <v>603.0344719021132</v>
+        <v>528.529911229372</v>
       </c>
       <c r="S7">
-        <v>0.2623629698967833</v>
+        <v>0.02346281012478863</v>
       </c>
       <c r="T7">
-        <v>0.2623629698967833</v>
+        <v>0.02346281012478864</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.1639257694168</v>
+        <v>3.271755333333333</v>
       </c>
       <c r="H8">
-        <v>20.1639257694168</v>
+        <v>9.815265999999999</v>
       </c>
       <c r="I8">
-        <v>0.5048598049217009</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="J8">
-        <v>0.5048598049217009</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.9321808293765</v>
+        <v>42.27999766666667</v>
       </c>
       <c r="N8">
-        <v>17.9321808293765</v>
+        <v>126.839993</v>
       </c>
       <c r="O8">
-        <v>0.3116002547078988</v>
+        <v>0.7007859554707628</v>
       </c>
       <c r="P8">
-        <v>0.3116002547078988</v>
+        <v>0.7007859554707628</v>
       </c>
       <c r="Q8">
-        <v>361.5831631273067</v>
+        <v>138.3298078592375</v>
       </c>
       <c r="R8">
-        <v>361.5831631273067</v>
+        <v>1244.968270733138</v>
       </c>
       <c r="S8">
-        <v>0.1573144438053821</v>
+        <v>0.05526736240840924</v>
       </c>
       <c r="T8">
-        <v>0.1573144438053821</v>
+        <v>0.05526736240840924</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.1639257694168</v>
+        <v>3.271755333333333</v>
       </c>
       <c r="H9">
-        <v>20.1639257694168</v>
+        <v>9.815265999999999</v>
       </c>
       <c r="I9">
-        <v>0.5048598049217009</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="J9">
-        <v>0.5048598049217009</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>39.616491093843</v>
+        <v>0.049944</v>
       </c>
       <c r="N9">
-        <v>39.616491093843</v>
+        <v>0.149832</v>
       </c>
       <c r="O9">
-        <v>0.6883997452921012</v>
+        <v>0.0008278158867455576</v>
       </c>
       <c r="P9">
-        <v>0.6883997452921012</v>
+        <v>0.0008278158867455577</v>
       </c>
       <c r="Q9">
-        <v>798.8239856610121</v>
+        <v>0.163404548368</v>
       </c>
       <c r="R9">
-        <v>798.8239856610121</v>
+        <v>1.470640935312</v>
       </c>
       <c r="S9">
-        <v>0.3475453611163188</v>
+        <v>6.528555582919949E-05</v>
       </c>
       <c r="T9">
-        <v>0.3475453611163188</v>
+        <v>6.528555582919949E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.500438494667434</v>
+        <v>16.04648966666667</v>
       </c>
       <c r="H10">
-        <v>0.500438494667434</v>
+        <v>48.139469</v>
       </c>
       <c r="I10">
-        <v>0.01252986564631743</v>
+        <v>0.3867965314590577</v>
       </c>
       <c r="J10">
-        <v>0.01252986564631743</v>
+        <v>0.3867965314590577</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>17.9321808293765</v>
+        <v>0.053067</v>
       </c>
       <c r="N10">
-        <v>17.9321808293765</v>
+        <v>0.159201</v>
       </c>
       <c r="O10">
-        <v>0.3116002547078988</v>
+        <v>0.0008795792419895585</v>
       </c>
       <c r="P10">
-        <v>0.3116002547078988</v>
+        <v>0.0008795792419895586</v>
       </c>
       <c r="Q10">
-        <v>8.973953580357392</v>
+        <v>0.851539067141</v>
       </c>
       <c r="R10">
-        <v>8.973953580357392</v>
+        <v>7.663851604269</v>
       </c>
       <c r="S10">
-        <v>0.003904309326848263</v>
+        <v>0.0003402181999449484</v>
       </c>
       <c r="T10">
-        <v>0.003904309326848263</v>
+        <v>0.0003402181999449484</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>16.04648966666667</v>
+      </c>
+      <c r="H11">
+        <v>48.139469</v>
+      </c>
+      <c r="I11">
+        <v>0.3867965314590577</v>
+      </c>
+      <c r="J11">
+        <v>0.3867965314590577</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>17.94924733333334</v>
+      </c>
+      <c r="N11">
+        <v>53.847742</v>
+      </c>
+      <c r="O11">
+        <v>0.297506649400502</v>
+      </c>
+      <c r="P11">
+        <v>0.297506649400502</v>
+      </c>
+      <c r="Q11">
+        <v>288.0224118587776</v>
+      </c>
+      <c r="R11">
+        <v>2592.201706728998</v>
+      </c>
+      <c r="S11">
+        <v>0.1150745400741201</v>
+      </c>
+      <c r="T11">
+        <v>0.1150745400741201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>16.04648966666667</v>
+      </c>
+      <c r="H12">
+        <v>48.139469</v>
+      </c>
+      <c r="I12">
+        <v>0.3867965314590577</v>
+      </c>
+      <c r="J12">
+        <v>0.3867965314590577</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>42.27999766666667</v>
+      </c>
+      <c r="N12">
+        <v>126.839993</v>
+      </c>
+      <c r="O12">
+        <v>0.7007859554707628</v>
+      </c>
+      <c r="P12">
+        <v>0.7007859554707628</v>
+      </c>
+      <c r="Q12">
+        <v>678.4455456648574</v>
+      </c>
+      <c r="R12">
+        <v>6106.009910983717</v>
+      </c>
+      <c r="S12">
+        <v>0.2710615768713127</v>
+      </c>
+      <c r="T12">
+        <v>0.2710615768713127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>16.04648966666667</v>
+      </c>
+      <c r="H13">
+        <v>48.139469</v>
+      </c>
+      <c r="I13">
+        <v>0.3867965314590577</v>
+      </c>
+      <c r="J13">
+        <v>0.3867965314590577</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.049944</v>
+      </c>
+      <c r="N13">
+        <v>0.149832</v>
+      </c>
+      <c r="O13">
+        <v>0.0008278158867455576</v>
+      </c>
+      <c r="P13">
+        <v>0.0008278158867455577</v>
+      </c>
+      <c r="Q13">
+        <v>0.8014258799119999</v>
+      </c>
+      <c r="R13">
+        <v>7.212832919207999</v>
+      </c>
+      <c r="S13">
+        <v>0.0003201963136798858</v>
+      </c>
+      <c r="T13">
+        <v>0.0003201963136798859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.500438494667434</v>
-      </c>
-      <c r="H11">
-        <v>0.500438494667434</v>
-      </c>
-      <c r="I11">
-        <v>0.01252986564631743</v>
-      </c>
-      <c r="J11">
-        <v>0.01252986564631743</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>39.616491093843</v>
-      </c>
-      <c r="N11">
-        <v>39.616491093843</v>
-      </c>
-      <c r="O11">
-        <v>0.6883997452921012</v>
-      </c>
-      <c r="P11">
-        <v>0.6883997452921012</v>
-      </c>
-      <c r="Q11">
-        <v>19.82561716700859</v>
-      </c>
-      <c r="R11">
-        <v>19.82561716700859</v>
-      </c>
-      <c r="S11">
-        <v>0.008625556319469171</v>
-      </c>
-      <c r="T11">
-        <v>0.008625556319469171</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>20.797757</v>
+      </c>
+      <c r="H14">
+        <v>62.393271</v>
+      </c>
+      <c r="I14">
+        <v>0.5013246159650206</v>
+      </c>
+      <c r="J14">
+        <v>0.5013246159650205</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.053067</v>
+      </c>
+      <c r="N14">
+        <v>0.159201</v>
+      </c>
+      <c r="O14">
+        <v>0.0008795792419895585</v>
+      </c>
+      <c r="P14">
+        <v>0.0008795792419895586</v>
+      </c>
+      <c r="Q14">
+        <v>1.103674570719</v>
+      </c>
+      <c r="R14">
+        <v>9.933071136471</v>
+      </c>
+      <c r="S14">
+        <v>0.0004409547257012194</v>
+      </c>
+      <c r="T14">
+        <v>0.0004409547257012194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>20.797757</v>
+      </c>
+      <c r="H15">
+        <v>62.393271</v>
+      </c>
+      <c r="I15">
+        <v>0.5013246159650206</v>
+      </c>
+      <c r="J15">
+        <v>0.5013246159650205</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>17.94924733333334</v>
+      </c>
+      <c r="N15">
+        <v>53.847742</v>
+      </c>
+      <c r="O15">
+        <v>0.297506649400502</v>
+      </c>
+      <c r="P15">
+        <v>0.297506649400502</v>
+      </c>
+      <c r="Q15">
+        <v>373.3040843715647</v>
+      </c>
+      <c r="R15">
+        <v>3359.736759344082</v>
+      </c>
+      <c r="S15">
+        <v>0.1491474067577467</v>
+      </c>
+      <c r="T15">
+        <v>0.1491474067577467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>20.797757</v>
+      </c>
+      <c r="H16">
+        <v>62.393271</v>
+      </c>
+      <c r="I16">
+        <v>0.5013246159650206</v>
+      </c>
+      <c r="J16">
+        <v>0.5013246159650205</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>42.27999766666667</v>
+      </c>
+      <c r="N16">
+        <v>126.839993</v>
+      </c>
+      <c r="O16">
+        <v>0.7007859554707628</v>
+      </c>
+      <c r="P16">
+        <v>0.7007859554707628</v>
+      </c>
+      <c r="Q16">
+        <v>879.3291174319004</v>
+      </c>
+      <c r="R16">
+        <v>7913.962056887102</v>
+      </c>
+      <c r="S16">
+        <v>0.3513212500000603</v>
+      </c>
+      <c r="T16">
+        <v>0.3513212500000601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>20.797757</v>
+      </c>
+      <c r="H17">
+        <v>62.393271</v>
+      </c>
+      <c r="I17">
+        <v>0.5013246159650206</v>
+      </c>
+      <c r="J17">
+        <v>0.5013246159650205</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.049944</v>
+      </c>
+      <c r="N17">
+        <v>0.149832</v>
+      </c>
+      <c r="O17">
+        <v>0.0008278158867455576</v>
+      </c>
+      <c r="P17">
+        <v>0.0008278158867455577</v>
+      </c>
+      <c r="Q17">
+        <v>1.038723175608</v>
+      </c>
+      <c r="R17">
+        <v>9.348508580472</v>
+      </c>
+      <c r="S17">
+        <v>0.0004150044815124597</v>
+      </c>
+      <c r="T17">
+        <v>0.0004150044815124596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5282783333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.584835</v>
+      </c>
+      <c r="I18">
+        <v>0.01273401418147998</v>
+      </c>
+      <c r="J18">
+        <v>0.01273401418147998</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.053067</v>
+      </c>
+      <c r="N18">
+        <v>0.159201</v>
+      </c>
+      <c r="O18">
+        <v>0.0008795792419895585</v>
+      </c>
+      <c r="P18">
+        <v>0.0008795792419895586</v>
+      </c>
+      <c r="Q18">
+        <v>0.028034146315</v>
+      </c>
+      <c r="R18">
+        <v>0.252307316835</v>
+      </c>
+      <c r="S18">
+        <v>1.120057454123045E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.120057454123045E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5282783333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.584835</v>
+      </c>
+      <c r="I19">
+        <v>0.01273401418147998</v>
+      </c>
+      <c r="J19">
+        <v>0.01273401418147998</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>17.94924733333334</v>
+      </c>
+      <c r="N19">
+        <v>53.847742</v>
+      </c>
+      <c r="O19">
+        <v>0.297506649400502</v>
+      </c>
+      <c r="P19">
+        <v>0.297506649400502</v>
+      </c>
+      <c r="Q19">
+        <v>9.482198465841112</v>
+      </c>
+      <c r="R19">
+        <v>85.33978619257</v>
+      </c>
+      <c r="S19">
+        <v>0.003788453892550584</v>
+      </c>
+      <c r="T19">
+        <v>0.003788453892550584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5282783333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.584835</v>
+      </c>
+      <c r="I20">
+        <v>0.01273401418147998</v>
+      </c>
+      <c r="J20">
+        <v>0.01273401418147998</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>42.27999766666667</v>
+      </c>
+      <c r="N20">
+        <v>126.839993</v>
+      </c>
+      <c r="O20">
+        <v>0.7007859554707628</v>
+      </c>
+      <c r="P20">
+        <v>0.7007859554707628</v>
+      </c>
+      <c r="Q20">
+        <v>22.33560670068389</v>
+      </c>
+      <c r="R20">
+        <v>201.020460306155</v>
+      </c>
+      <c r="S20">
+        <v>0.00892381829514669</v>
+      </c>
+      <c r="T20">
+        <v>0.00892381829514669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5282783333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.584835</v>
+      </c>
+      <c r="I21">
+        <v>0.01273401418147998</v>
+      </c>
+      <c r="J21">
+        <v>0.01273401418147998</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.049944</v>
+      </c>
+      <c r="N21">
+        <v>0.149832</v>
+      </c>
+      <c r="O21">
+        <v>0.0008278158867455576</v>
+      </c>
+      <c r="P21">
+        <v>0.0008278158867455577</v>
+      </c>
+      <c r="Q21">
+        <v>0.02638433308</v>
+      </c>
+      <c r="R21">
+        <v>0.23745899772</v>
+      </c>
+      <c r="S21">
+        <v>1.054141924147235E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.054141924147235E-05</v>
       </c>
     </row>
   </sheetData>
